--- a/team_specific_matrix/CSU Bakersfield_A.xlsx
+++ b/team_specific_matrix/CSU Bakersfield_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1714285714285714</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C2">
-        <v>0.580952380952381</v>
+        <v>0.5592592592592592</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01904761904761905</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1333333333333333</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09523809523809523</v>
+        <v>0.0962962962962963</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0234375</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="C3">
-        <v>0.015625</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0390625</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7109375</v>
+        <v>0.7278481012658228</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2109375</v>
+        <v>0.1962025316455696</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2553191489361702</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04790419161676647</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01796407185628742</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08982035928143713</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2934131736526946</v>
+        <v>0.2829268292682927</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005988023952095809</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2155688622754491</v>
+        <v>0.2341463414634146</v>
       </c>
       <c r="R6">
-        <v>0.03592814371257485</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="S6">
-        <v>0.2934131736526946</v>
+        <v>0.3024390243902439</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08620689655172414</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02298850574712644</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05172413793103448</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.132183908045977</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02298850574712644</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2068965517241379</v>
+        <v>0.1885964912280702</v>
       </c>
       <c r="R7">
-        <v>0.05172413793103448</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S7">
-        <v>0.4252873563218391</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08680555555555555</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01388888888888889</v>
+        <v>0.01373626373626374</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05902777777777778</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1423611111111111</v>
+        <v>0.1510989010989011</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02430555555555556</v>
+        <v>0.02472527472527472</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2013888888888889</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="R8">
-        <v>0.06944444444444445</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="S8">
-        <v>0.4027777777777778</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.103448275862069</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02586206896551724</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.01724137931034483</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1120689655172414</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008620689655172414</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2068965517241379</v>
+        <v>0.2026143790849673</v>
       </c>
       <c r="R9">
-        <v>0.05172413793103448</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="S9">
-        <v>0.4741379310344828</v>
+        <v>0.457516339869281</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1094890510948905</v>
+        <v>0.1104502973661852</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03023983315954119</v>
+        <v>0.02888700084961767</v>
       </c>
       <c r="E10">
-        <v>0.003128258602711158</v>
+        <v>0.002548853016142736</v>
       </c>
       <c r="F10">
-        <v>0.07090719499478623</v>
+        <v>0.06881903143585387</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.145985401459854</v>
+        <v>0.1376380628717077</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01876955161626695</v>
+        <v>0.02293967714528462</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2304483837330553</v>
+        <v>0.2234494477485132</v>
       </c>
       <c r="R10">
-        <v>0.04900938477580814</v>
+        <v>0.05437553101104503</v>
       </c>
       <c r="S10">
-        <v>0.3420229405630866</v>
+        <v>0.35089209855565</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1448275862068966</v>
+        <v>0.1440443213296399</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1275862068965517</v>
+        <v>0.1135734072022161</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.1939058171745152</v>
       </c>
       <c r="L11">
-        <v>0.5068965517241379</v>
+        <v>0.5290858725761773</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02068965517241379</v>
+        <v>0.01939058171745152</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7843137254901961</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1633986928104575</v>
+        <v>0.1464646464646465</v>
       </c>
       <c r="K12">
-        <v>0.0196078431372549</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="L12">
-        <v>0.0130718954248366</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0196078431372549</v>
+        <v>0.0202020202020202</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6341463414634146</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3170731707317073</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04878048780487805</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01273885350318471</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1210191082802548</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="I15">
-        <v>0.1019108280254777</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="J15">
-        <v>0.3757961783439491</v>
+        <v>0.3490566037735849</v>
       </c>
       <c r="K15">
-        <v>0.05732484076433121</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01273885350318471</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="N15">
-        <v>0.006369426751592357</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="O15">
-        <v>0.03821656050955414</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2738853503184713</v>
+        <v>0.2641509433962264</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02816901408450704</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1619718309859155</v>
+        <v>0.1657458563535912</v>
       </c>
       <c r="I16">
-        <v>0.08450704225352113</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="J16">
-        <v>0.3169014084507042</v>
+        <v>0.3204419889502763</v>
       </c>
       <c r="K16">
-        <v>0.1971830985915493</v>
+        <v>0.1878453038674033</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02112676056338028</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04225352112676056</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.147887323943662</v>
+        <v>0.1491712707182321</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03191489361702127</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1808510638297872</v>
+        <v>0.1831896551724138</v>
       </c>
       <c r="I17">
-        <v>0.06914893617021277</v>
+        <v>0.0668103448275862</v>
       </c>
       <c r="J17">
-        <v>0.3617021276595745</v>
+        <v>0.3706896551724138</v>
       </c>
       <c r="K17">
-        <v>0.1462765957446809</v>
+        <v>0.1422413793103448</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02127659574468085</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06914893617021277</v>
+        <v>0.07112068965517242</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1196808510638298</v>
+        <v>0.1142241379310345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01136363636363636</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.125</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="I18">
-        <v>0.06818181818181818</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="J18">
-        <v>0.4886363636363636</v>
+        <v>0.4311926605504587</v>
       </c>
       <c r="K18">
-        <v>0.1477272727272727</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01136363636363636</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05681818181818182</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.1192660550458716</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02031602708803612</v>
+        <v>0.01684397163120567</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1918735891647856</v>
+        <v>0.1861702127659574</v>
       </c>
       <c r="I19">
-        <v>0.06433408577878104</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="J19">
-        <v>0.3769751693002257</v>
+        <v>0.3652482269503546</v>
       </c>
       <c r="K19">
-        <v>0.1331828442437923</v>
+        <v>0.1356382978723404</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03047404063205418</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="N19">
-        <v>0.002257336343115124</v>
+        <v>0.001773049645390071</v>
       </c>
       <c r="O19">
-        <v>0.07110609480812641</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1094808126410835</v>
+        <v>0.1205673758865248</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/CSU Bakersfield_A.xlsx
+++ b/team_specific_matrix/CSU Bakersfield_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1888888888888889</v>
+        <v>0.1827586206896552</v>
       </c>
       <c r="C2">
-        <v>0.5592592592592592</v>
+        <v>0.5724137931034483</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01481481481481482</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1407407407407407</v>
+        <v>0.1344827586206896</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0962962962962963</v>
+        <v>0.09655172413793103</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0189873417721519</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="C3">
-        <v>0.02531645569620253</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03164556962025317</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7278481012658228</v>
+        <v>0.7398843930635838</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1962025316455696</v>
+        <v>0.1907514450867052</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0851063829787234</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6595744680851063</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2553191489361702</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04878048780487805</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01463414634146342</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08292682926829269</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2829268292682927</v>
+        <v>0.2869955156950673</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004878048780487805</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2341463414634146</v>
+        <v>0.2197309417040359</v>
       </c>
       <c r="R6">
-        <v>0.02926829268292683</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="S6">
-        <v>0.3024390243902439</v>
+        <v>0.3004484304932735</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09210526315789473</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02192982456140351</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04824561403508772</v>
+        <v>0.04435483870967742</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1578947368421053</v>
+        <v>0.1653225806451613</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02192982456140351</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1885964912280702</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="R7">
-        <v>0.05263157894736842</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="S7">
-        <v>0.4166666666666667</v>
+        <v>0.4233870967741936</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09340659340659341</v>
+        <v>0.09973753280839895</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01373626373626374</v>
+        <v>0.01312335958005249</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06593406593406594</v>
+        <v>0.06561679790026247</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1510989010989011</v>
+        <v>0.1443569553805774</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02472527472527472</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2087912087912088</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="R8">
-        <v>0.0576923076923077</v>
+        <v>0.05774278215223097</v>
       </c>
       <c r="S8">
-        <v>0.3846153846153846</v>
+        <v>0.3832020997375328</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1045751633986928</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0196078431372549</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03267973856209151</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.130718954248366</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006535947712418301</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2026143790849673</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="R9">
-        <v>0.0457516339869281</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="S9">
-        <v>0.457516339869281</v>
+        <v>0.4390243902439024</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1104502973661852</v>
+        <v>0.1118935837245696</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02888700084961767</v>
+        <v>0.0297339593114241</v>
       </c>
       <c r="E10">
-        <v>0.002548853016142736</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="F10">
-        <v>0.06881903143585387</v>
+        <v>0.06885758998435054</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1376380628717077</v>
+        <v>0.1369327073552426</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02293967714528462</v>
+        <v>0.02190923317683881</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2234494477485132</v>
+        <v>0.2175273865414711</v>
       </c>
       <c r="R10">
-        <v>0.05437553101104503</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="S10">
-        <v>0.35089209855565</v>
+        <v>0.3544600938967136</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1440443213296399</v>
+        <v>0.1421188630490956</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1135734072022161</v>
+        <v>0.1136950904392765</v>
       </c>
       <c r="K11">
-        <v>0.1939058171745152</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="L11">
-        <v>0.5290858725761773</v>
+        <v>0.5322997416020672</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01939058171745152</v>
+        <v>0.01808785529715762</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8080808080808081</v>
+        <v>0.8215962441314554</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1464646464646465</v>
+        <v>0.136150234741784</v>
       </c>
       <c r="K12">
-        <v>0.01515151515151515</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="L12">
-        <v>0.0101010101010101</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0202020202020202</v>
+        <v>0.0187793427230047</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6274509803921569</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3137254901960784</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.05454545454545454</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01886792452830189</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1320754716981132</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="I15">
-        <v>0.08962264150943396</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="J15">
-        <v>0.3490566037735849</v>
+        <v>0.3463203463203463</v>
       </c>
       <c r="K15">
-        <v>0.0660377358490566</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01415094339622642</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N15">
-        <v>0.004716981132075472</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="O15">
-        <v>0.06132075471698113</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2641509433962264</v>
+        <v>0.2510822510822511</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02762430939226519</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1657458563535912</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="I16">
-        <v>0.08839779005524862</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.3204419889502763</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="K16">
-        <v>0.1878453038674033</v>
+        <v>0.1868686868686869</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01657458563535912</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04419889502762431</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1491712707182321</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02586206896551724</v>
+        <v>0.0285132382892057</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1831896551724138</v>
+        <v>0.1771894093686354</v>
       </c>
       <c r="I17">
-        <v>0.0668103448275862</v>
+        <v>0.06313645621181263</v>
       </c>
       <c r="J17">
-        <v>0.3706896551724138</v>
+        <v>0.3686354378818738</v>
       </c>
       <c r="K17">
-        <v>0.1422413793103448</v>
+        <v>0.1486761710794297</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02586206896551724</v>
+        <v>0.02443991853360489</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07112068965517242</v>
+        <v>0.07331975560081466</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1142241379310345</v>
+        <v>0.1160896130346232</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009174311926605505</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1376146788990826</v>
+        <v>0.1382113821138211</v>
       </c>
       <c r="I18">
-        <v>0.09174311926605505</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="J18">
-        <v>0.4311926605504587</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="K18">
-        <v>0.1376146788990826</v>
+        <v>0.1382113821138211</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02752293577981652</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04587155963302753</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1192660550458716</v>
+        <v>0.1138211382113821</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01684397163120567</v>
+        <v>0.01657000828500414</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1861702127659574</v>
+        <v>0.1822700911350456</v>
       </c>
       <c r="I19">
-        <v>0.06914893617021277</v>
+        <v>0.07207953603976802</v>
       </c>
       <c r="J19">
-        <v>0.3652482269503546</v>
+        <v>0.3728251864125932</v>
       </c>
       <c r="K19">
-        <v>0.1356382978723404</v>
+        <v>0.1317315658657829</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02659574468085106</v>
+        <v>0.02734051367025684</v>
       </c>
       <c r="N19">
-        <v>0.001773049645390071</v>
+        <v>0.001657000828500414</v>
       </c>
       <c r="O19">
-        <v>0.07801418439716312</v>
+        <v>0.07705053852526926</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1205673758865248</v>
+        <v>0.1184755592377796</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/CSU Bakersfield_A.xlsx
+++ b/team_specific_matrix/CSU Bakersfield_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1827586206896552</v>
+        <v>0.18</v>
       </c>
       <c r="C2">
-        <v>0.5724137931034483</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01379310344827586</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1344827586206896</v>
+        <v>0.13</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09655172413793103</v>
+        <v>0.1033333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01734104046242774</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="C3">
-        <v>0.02312138728323699</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02890173410404624</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7398843930635838</v>
+        <v>0.7430167597765364</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1907514450867052</v>
+        <v>0.1899441340782123</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07843137254901961</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6862745098039216</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04484304932735426</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01345291479820628</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08520179372197309</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2869955156950673</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008968609865470852</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2197309417040359</v>
+        <v>0.2164502164502164</v>
       </c>
       <c r="R6">
-        <v>0.04035874439461883</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="S6">
-        <v>0.3004484304932735</v>
+        <v>0.2987012987012987</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0846774193548387</v>
+        <v>0.08203125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02016129032258064</v>
+        <v>0.01953125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04435483870967742</v>
+        <v>0.04296875</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1653225806451613</v>
+        <v>0.16796875</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02016129032258064</v>
+        <v>0.01953125</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1935483870967742</v>
+        <v>0.203125</v>
       </c>
       <c r="R7">
-        <v>0.04838709677419355</v>
+        <v>0.046875</v>
       </c>
       <c r="S7">
-        <v>0.4233870967741936</v>
+        <v>0.41796875</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09973753280839895</v>
+        <v>0.1043256997455471</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01312335958005249</v>
+        <v>0.01272264631043257</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06561679790026247</v>
+        <v>0.06361323155216285</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1443569553805774</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02362204724409449</v>
+        <v>0.02544529262086514</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2125984251968504</v>
+        <v>0.2086513994910942</v>
       </c>
       <c r="R8">
-        <v>0.05774278215223097</v>
+        <v>0.05852417302798982</v>
       </c>
       <c r="S8">
-        <v>0.3832020997375328</v>
+        <v>0.3816793893129771</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0975609756097561</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01829268292682927</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0426829268292683</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1341463414634146</v>
+        <v>0.1369047619047619</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1951219512195122</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="R9">
-        <v>0.06097560975609756</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="S9">
-        <v>0.4390243902439024</v>
+        <v>0.4404761904761905</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1118935837245696</v>
+        <v>0.11236802413273</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0297339593114241</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E10">
-        <v>0.002347417840375587</v>
+        <v>0.002262443438914027</v>
       </c>
       <c r="F10">
-        <v>0.06885758998435054</v>
+        <v>0.07013574660633484</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1369327073552426</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02190923317683881</v>
+        <v>0.02111613876319759</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2175273865414711</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="R10">
-        <v>0.05633802816901409</v>
+        <v>0.05656108597285068</v>
       </c>
       <c r="S10">
-        <v>0.3544600938967136</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1421188630490956</v>
+        <v>0.1425</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1136950904392765</v>
+        <v>0.11</v>
       </c>
       <c r="K11">
-        <v>0.1937984496124031</v>
+        <v>0.1925</v>
       </c>
       <c r="L11">
-        <v>0.5322997416020672</v>
+        <v>0.535</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01808785529715762</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8215962441314554</v>
+        <v>0.8144796380090498</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.136150234741784</v>
+        <v>0.1447963800904978</v>
       </c>
       <c r="K12">
-        <v>0.01408450704225352</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="L12">
-        <v>0.009389671361502348</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0187793427230047</v>
+        <v>0.01809954751131222</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6181818181818182</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3272727272727273</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05454545454545454</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02164502164502164</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1341991341991342</v>
+        <v>0.1350210970464135</v>
       </c>
       <c r="I15">
-        <v>0.08658008658008658</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="J15">
-        <v>0.3463203463203463</v>
+        <v>0.350210970464135</v>
       </c>
       <c r="K15">
-        <v>0.0735930735930736</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01298701298701299</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="N15">
-        <v>0.004329004329004329</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="O15">
-        <v>0.06926406926406926</v>
+        <v>0.06751054852320675</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2510822510822511</v>
+        <v>0.2489451476793249</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02525252525252525</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1515151515151515</v>
+        <v>0.1519607843137255</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="J16">
-        <v>0.3434343434343434</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="K16">
-        <v>0.1868686868686869</v>
+        <v>0.1813725490196078</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01515151515151515</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0505050505050505</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1363636363636364</v>
+        <v>0.142156862745098</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0285132382892057</v>
+        <v>0.0275049115913556</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1771894093686354</v>
+        <v>0.1768172888015717</v>
       </c>
       <c r="I17">
-        <v>0.06313645621181263</v>
+        <v>0.06286836935166994</v>
       </c>
       <c r="J17">
-        <v>0.3686354378818738</v>
+        <v>0.3713163064833006</v>
       </c>
       <c r="K17">
-        <v>0.1486761710794297</v>
+        <v>0.1473477406679764</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02443991853360489</v>
+        <v>0.02357563850687623</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07331975560081466</v>
+        <v>0.07662082514734773</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1160896130346232</v>
+        <v>0.1139489194499018</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008130081300813009</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1382113821138211</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="I18">
-        <v>0.08130081300813008</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="J18">
-        <v>0.4390243902439024</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="K18">
-        <v>0.1382113821138211</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03252032520325204</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04878048780487805</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1138211382113821</v>
+        <v>0.1085271317829457</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01657000828500414</v>
+        <v>0.01690821256038647</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1822700911350456</v>
+        <v>0.1819645732689211</v>
       </c>
       <c r="I19">
-        <v>0.07207953603976802</v>
+        <v>0.07085346215780998</v>
       </c>
       <c r="J19">
-        <v>0.3728251864125932</v>
+        <v>0.3735909822866345</v>
       </c>
       <c r="K19">
-        <v>0.1317315658657829</v>
+        <v>0.1344605475040258</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02734051367025684</v>
+        <v>0.02818035426731079</v>
       </c>
       <c r="N19">
-        <v>0.001657000828500414</v>
+        <v>0.001610305958132045</v>
       </c>
       <c r="O19">
-        <v>0.07705053852526926</v>
+        <v>0.07568438003220612</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1184755592377796</v>
+        <v>0.1167471819645733</v>
       </c>
     </row>
   </sheetData>
